--- a/Covid19Quiz.xlsx
+++ b/Covid19Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohitchoudhary/perpro/corona-quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C779F4-F540-9D4B-84C9-7DF3B3EAA452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131989D9-67CB-6146-A1E2-978780158C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>question</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Incorrect answer. Please try again.</t>
   </si>
   <si>
-    <t>Eating Chicken</t>
-  </si>
-  <si>
     <t>Wuhan</t>
   </si>
   <si>
@@ -109,16 +106,10 @@
     <t>Not needed</t>
   </si>
   <si>
-    <t>What is best way to clean your hands?</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
     <t>How does Coronavirus spread?</t>
-  </si>
-  <si>
-    <t>Get in contact of an infected person</t>
   </si>
   <si>
     <t>Where was the first case of coronavirus reported?</t>
@@ -169,7 +160,151 @@
     <t>What age was the oldest person to recover from coronavirus?</t>
   </si>
   <si>
+    <t>Where was the first case of coronavirus reported in India?</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Which Virus causes Covid-19?</t>
+  </si>
+  <si>
+    <t>SARS-CoV2</t>
+  </si>
+  <si>
+    <t>SARS-CoV</t>
+  </si>
+  <si>
+    <t>MERS-CoV</t>
+  </si>
+  <si>
+    <t>Which country is following "Drive Through Testing"?</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>When should you use face mask?</t>
+  </si>
+  <si>
+    <t>When you are sick</t>
+  </si>
+  <si>
+    <t>While going out</t>
+  </si>
+  <si>
+    <t>All the time</t>
+  </si>
+  <si>
+    <t>For how long should you wash your hands to be safe?</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>20 seconds</t>
+  </si>
+  <si>
+    <t>10 seconds</t>
+  </si>
+  <si>
+    <t>You should go out only to</t>
+  </si>
+  <si>
+    <t>Buy groceries</t>
+  </si>
+  <si>
+    <t>Meet friends</t>
+  </si>
+  <si>
+    <t>Play cricket</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>How can you prevent getting infected with the Coronavirus?</t>
+  </si>
+  <si>
+    <t>Staying away from infected person</t>
+  </si>
+  <si>
+    <t>Eating garlic</t>
+  </si>
+  <si>
+    <t>Rinsing your nose with saline</t>
+  </si>
+  <si>
+    <t>Yes, It only affects people above 60 years</t>
+  </si>
+  <si>
+    <t>Yes, It only affects older people with pre-existing medical conditions</t>
+  </si>
+  <si>
+    <t>No, People of all ages can be infected</t>
+  </si>
+  <si>
+    <t>Are antibiotics effective in preventing and treating the Coronavirus?</t>
+  </si>
+  <si>
+    <t>Yes, antibiotics prevent and treat Coronavirus</t>
+  </si>
+  <si>
+    <t>No, antibiotics do not work against viruses</t>
+  </si>
+  <si>
+    <t>What is the best way to clean your hands?</t>
+  </si>
+  <si>
+    <t>Which of these statements is true?</t>
+  </si>
+  <si>
+    <t>Spraying alcohol or chlorine over your body kills the Coronavirus.</t>
+  </si>
+  <si>
+    <t>Vaccines against pneumonia protects you against the Coronavirus.</t>
+  </si>
+  <si>
+    <t>Eating Garlic can help prevent infection with the Coronavirus.</t>
+  </si>
+  <si>
+    <t>Coronavirus only affects older people.</t>
+  </si>
+  <si>
     <t>Drinking dirty water</t>
+  </si>
+  <si>
+    <t>Eating chicken</t>
+  </si>
+  <si>
+    <t>Getting in contact of an infected person</t>
+  </si>
+  <si>
+    <t>Drinking Cow urine builds immunity against Covid19</t>
+  </si>
+  <si>
+    <t>Hot water bath prevents you from catching Covid-19</t>
+  </si>
+  <si>
+    <t>Covid-19 spreads through droplets generated by cough or sneeze of the infected person</t>
+  </si>
+  <si>
+    <t>Effective in some cases</t>
+  </si>
+  <si>
+    <t>Covid-19 can be transmitted in hot and humid areas.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +565,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -502,7 +637,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -511,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -551,16 +686,16 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -598,19 +733,19 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -647,19 +782,19 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -696,16 +831,16 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -743,16 +878,16 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -790,16 +925,16 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -837,7 +972,7 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>700</v>
@@ -884,7 +1019,7 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>103</v>
@@ -930,19 +1065,39 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -957,19 +1112,39 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -984,19 +1159,39 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1011,19 +1206,39 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1038,19 +1253,39 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1065,19 +1300,39 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1092,19 +1347,39 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>10</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1119,19 +1394,39 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>10</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1146,19 +1441,39 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>10</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1173,19 +1488,39 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>10</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1200,19 +1535,39 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>10</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1227,19 +1582,39 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>10</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1254,19 +1629,39 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>10</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1281,19 +1676,39 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -27605,34 +28020,8 @@
       <c r="X998" s="1"/>
       <c r="Y998" s="1"/>
     </row>
-    <row r="999" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Covid19Quiz.xlsx
+++ b/Covid19Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohitchoudhary/perpro/corona-quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131989D9-67CB-6146-A1E2-978780158C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D12D54-54D4-9440-A5BC-B9B8A5F7BD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="123">
   <si>
     <t>question</t>
   </si>
@@ -306,6 +306,90 @@
   <si>
     <t>Covid-19 can be transmitted in hot and humid areas.</t>
   </si>
+  <si>
+    <t>Can I catch the coronavirus disease (COVID-19) from my pet?</t>
+  </si>
+  <si>
+    <t>The Coronavirus can be transmitted through mosquito bites.</t>
+  </si>
+  <si>
+    <t>Are hand dryers effective in killing the new coronavirus?</t>
+  </si>
+  <si>
+    <t>Can you catch the Coronavirus and show no symptoms?</t>
+  </si>
+  <si>
+    <t>Yes, because it has 5 days incubation period</t>
+  </si>
+  <si>
+    <t>No, symptoms are visible from day 1</t>
+  </si>
+  <si>
+    <t>Can you catch the Coronavirus for the second time?</t>
+  </si>
+  <si>
+    <t>You can get infected again</t>
+  </si>
+  <si>
+    <t>You only get infected once</t>
+  </si>
+  <si>
+    <t>Depends on how long the immunity of the patient lasts</t>
+  </si>
+  <si>
+    <t>How long can the Cornonavirus survive on surfaces?</t>
+  </si>
+  <si>
+    <t>It doesn't stick to surfaces</t>
+  </si>
+  <si>
+    <t>Surfaces remain infected always</t>
+  </si>
+  <si>
+    <t>Depends on the surface material and the amount of virus present</t>
+  </si>
+  <si>
+    <t>How long can the Cornonavirus survive on copper?</t>
+  </si>
+  <si>
+    <t>Up to 5hrs</t>
+  </si>
+  <si>
+    <t>Up to 4hrs</t>
+  </si>
+  <si>
+    <t>Up to 3hrs</t>
+  </si>
+  <si>
+    <t>How long can the Cornonavirus survive on cardboard?</t>
+  </si>
+  <si>
+    <t>Up to 24hrs</t>
+  </si>
+  <si>
+    <t>Up to 20hrs</t>
+  </si>
+  <si>
+    <t>Up to 15hrs</t>
+  </si>
+  <si>
+    <t>How long can the Cornonavirus survive on plastic?</t>
+  </si>
+  <si>
+    <t>Up to 3 days</t>
+  </si>
+  <si>
+    <t>Up to 5 days</t>
+  </si>
+  <si>
+    <t>Up to 7 days</t>
+  </si>
+  <si>
+    <t>How long can the Cornonavirus survive on stainless steel?</t>
+  </si>
+  <si>
+    <t>How long can the Cornonavirus survive in air?</t>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +652,7 @@
   <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:M24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1359,25 +1443,24 @@
       <c r="D17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <v>10</v>
       </c>
       <c r="N17" s="1"/>
@@ -1723,19 +1806,39 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>10</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1750,19 +1853,39 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1777,19 +1900,39 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1804,19 +1947,39 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1831,19 +1994,39 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1858,19 +2041,39 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1">
+        <v>10</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1885,19 +2088,39 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1">
+        <v>10</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1912,19 +2135,39 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1">
+        <v>10</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1939,19 +2182,39 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1">
+        <v>10</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -1966,19 +2229,39 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1">
+        <v>10</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1993,19 +2276,39 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>10</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
